--- a/TestData/signup.xlsx
+++ b/TestData/signup.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>adyin</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,6 +428,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -430,6 +439,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -438,6 +450,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -445,6 +460,9 @@
       </c>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
